--- a/fastqFiles/fastq_J.PLAGGENBERG_07.02.19.xlsx
+++ b/fastqFiles/fastq_J.PLAGGENBERG_07.02.19.xlsx
@@ -1,17 +1,37 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-  <workbookPr/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10113"/>
+  <workbookPr defaultThemeVersion="166925"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/jessicaplaggenberg/Documents/rnaseq-database/fastqFiles/"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{41F94593-FE8F-3147-B434-04D4586A2E66}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <bookViews>
+    <workbookView xWindow="12700" yWindow="460" windowWidth="25260" windowHeight="19900" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+  </bookViews>
   <sheets>
-    <sheet state="visible" name="Sheet1" sheetId="1" r:id="rId3"/>
+    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
   </sheets>
-  <definedNames/>
-  <calcPr/>
+  <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="252" uniqueCount="17">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="320" uniqueCount="66">
   <si>
     <t>libraryDate</t>
   </si>
@@ -62,39 +82,204 @@
   </si>
   <si>
     <t>H.BROWN</t>
+  </si>
+  <si>
+    <t>1.0</t>
+  </si>
+  <si>
+    <t>Brent_10_GTAC_10_SIC_Index-07_GGCAGCG_GAGTTGGT_S60_L001_R1_001.fastq.gz</t>
+  </si>
+  <si>
+    <t>Brent_11_GTAC_11_SIC_Index-07_CCATCAT_GAGTTGGT_S61_L001_R1_001.fastq.gz</t>
+  </si>
+  <si>
+    <t>Brent_12_GTAC_12_SIC_Index-07_TAACAAG_GAGTTGGT_S62_L001_R1_001.fastq.gz</t>
+  </si>
+  <si>
+    <t>Brent_13_GTAC_13_SIC_Index-07_GAGGCGT_GAGTTGGT_S69_L001_R1_001.fastq.gz</t>
+  </si>
+  <si>
+    <t>Brent_14_GTAC_14_SIC_Index-07_TTTAACT_GAGTTGGT_S70_L001_R1_001.fastq.gz</t>
+  </si>
+  <si>
+    <t>Brent_15_GTAC_15_SIC_Index-07_GGTCCTC_GAGTTGGT_S71_L001_R1_001.fastq.gz</t>
+  </si>
+  <si>
+    <t>Brent_16_GTAC_16_SIC_Index-07_CGGTGGC_GAGTTGGT_S72_L001_R1_001.fastq.gz</t>
+  </si>
+  <si>
+    <t>Brent_17_GTAC_17_SIC_Index-07_ACTGTCG_GAGTTGGT_S73_L001_R1_001.fastq.gz</t>
+  </si>
+  <si>
+    <t>Brent_18_GTAC_18_SIC_Index-07_GTATTTG_GAGTTGGT_S74_L001_R1_001.fastq.gz</t>
+  </si>
+  <si>
+    <t>Brent_19_GTAC_19_SIC_Index-07_GAGTACG_GAGTTGGT_S81_L001_R1_001.fastq.gz</t>
+  </si>
+  <si>
+    <t>Brent_1_GTAC_1_SIC_Index-07_TGAGGTT_GAGTTGGT_S45_L001_R1_001.fastq.gz</t>
+  </si>
+  <si>
+    <t>Brent_20_GTAC_20_SIC_Index-07_ACAGATA_GAGTTGGT_S82_L001_R1_001.fastq.gz</t>
+  </si>
+  <si>
+    <t>Brent_21_GTAC_21_SIC_Index-07_CTCAATG_GAGTTGGT_S83_L001_R1_001.fastq.gz</t>
+  </si>
+  <si>
+    <t>Brent_22_GTAC_22_SIC_Index-07_AAATGCA_GAGTTGGT_S84_L001_R1_001.fastq.gz</t>
+  </si>
+  <si>
+    <t>Brent_23_GTAC_23_SIC_Index-07_ACGCGGG_GAGTTGGT_S85_L001_R1_001.fastq.gz</t>
+  </si>
+  <si>
+    <t>Brent_24_GTAC_24_SIC_Index-07_GGAGTCC_GAGTTGGT_S86_L001_R1_001.fastq.gz</t>
+  </si>
+  <si>
+    <t>Brent_25_GTAC_25_SIC_Index-07_CGTCGCT_GAGTTGGT_S51_L001_R1_001.fastq.gz</t>
+  </si>
+  <si>
+    <t>Brent_26_GTAC_26_SIC_Index-07_TCAACTG_GAGTTGGT_S52_L001_R1_001.fastq.gz</t>
+  </si>
+  <si>
+    <t>Brent_27_GTAC_27_SIC_Index-07_TGTTTGT_GAGTTGGT_S53_L001_R1_001.fastq.gz</t>
+  </si>
+  <si>
+    <t>Brent_28_GTAC_28_SIC_Index-07_TACATGG_GAGTTGGT_S54_L001_R1_001.fastq.gz</t>
+  </si>
+  <si>
+    <t>Brent_29_GTAC_29_SIC_Index-07_GTTCTCA_GAGTTGGT_S55_L001_R1_001.fastq.gz</t>
+  </si>
+  <si>
+    <t>Brent_2_GTAC_2_SIC_Index-07_GCTTAGA_GAGTTGGT_S46_L001_R1_001.fastq.gz</t>
+  </si>
+  <si>
+    <t>Brent_30_GTAC_30_SIC_Index-07_CTGGTGG_GAGTTGGT_S56_L001_R1_001.fastq.gz</t>
+  </si>
+  <si>
+    <t>Brent_31_GTAC_31_SIC_Index-07_TGCCCAT_GAGTTGGT_S63_L001_R1_001.fastq.gz</t>
+  </si>
+  <si>
+    <t>Brent_32_GTAC_32_SIC_Index-07_AAACCTT_GAGTTGGT_S64_L001_R1_001.fastq.gz</t>
+  </si>
+  <si>
+    <t>Brent_33_GTAC_33_SIC_Index-07_ACCATAC_GAGTTGGT_S65_L001_R1_001.fastq.gz</t>
+  </si>
+  <si>
+    <t>Brent_34_GTAC_34_SIC_Index-07_AATACGC_GAGTTGGT_S66_L001_R1_001.fastq.gz</t>
+  </si>
+  <si>
+    <t>Brent_35_GTAC_35_SIC_Index-07_CGCTACA_GAGTTGGT_S67_L001_R1_001.fastq.gz</t>
+  </si>
+  <si>
+    <t>Brent_36_GTAC_36_SIC_Index-07_TGGCATA_GAGTTGGT_S68_L001_R1_001.fastq.gz</t>
+  </si>
+  <si>
+    <t>Brent_37_GTAC_37_SIC_Index-07_TTTTGTC_GAGTTGGT_S75_L001_R1_001.fastq.gz</t>
+  </si>
+  <si>
+    <t>Brent_38_GTAC_38_SIC_Index-07_ACCCACT_GAGTTGGT_S76_L001_R1_001.fastq.gz</t>
+  </si>
+  <si>
+    <t>Brent_39_GTAC_39_SIC_Index-07_CCGGACC_GAGTTGGT_S77_L001_R1_001.fastq.gz</t>
+  </si>
+  <si>
+    <t>Brent_3_GTAC_3_SIC_Index-07_ATGACAG_GAGTTGGT_S47_L001_R1_001.fastq.gz</t>
+  </si>
+  <si>
+    <t>Brent_40_GTAC_40_SIC_Index-07_GTACGGC_GAGTTGGT_S78_L001_R1_001.fastq.gz</t>
+  </si>
+  <si>
+    <t>Brent_41_GTAC_41_SIC_Index-07_TTGCCCC_GAGTTGGT_S79_L001_R1_001.fastq.gz</t>
+  </si>
+  <si>
+    <t>Brent_42_GTAC_42_SIC_Index-07_ACTCCAA_GAGTTGGT_S80_L001_R1_001.fastq.gz</t>
+  </si>
+  <si>
+    <t>Brent_43_GTAC_43_SIC_Index-07_TGTGCCA_GAGTTGGT_S87_L001_R1_001.fastq.gz</t>
+  </si>
+  <si>
+    <t>Brent_44_GTAC_44_SIC_Index-07_AACGGAG_GAGTTGGT_S88_L001_R1_001.fastq.gz</t>
+  </si>
+  <si>
+    <t>Brent_45_GTAC_45_SIC_Index-07_GATAGTT_GAGTTGGT_S89_L001_R1_001.fastq.gz</t>
+  </si>
+  <si>
+    <t>Brent_46_GTAC_46_SIC_Index-07_GGTGAAT_GAGTTGGT_S90_L001_R1_001.fastq.gz</t>
+  </si>
+  <si>
+    <t>Brent_47_GTAC_47_SIC_Index-07_ATGTTCT_GAGTTGGT_S91_L001_R1_001.fastq.gz</t>
+  </si>
+  <si>
+    <t>Brent_48_GTAC_48_SIC_Index-07_GTAAAAA_GAGTTGGT_S92_L001_R1_001.fastq.gz</t>
+  </si>
+  <si>
+    <t>Brent_4_GTAC_4_SIC_Index-07_CACCTCC_GAGTTGGT_S48_L001_R1_001.fastq.gz</t>
+  </si>
+  <si>
+    <t>Brent_5_GTAC_5_SIC_Index-07_ATCGAGC_GAGTTGGT_S49_L001_R1_001.fastq.gz</t>
+  </si>
+  <si>
+    <t>Brent_6_GTAC_6_SIC_Index-07_TACTCTA_GAGTTGGT_S50_L001_R1_001.fastq.gz</t>
+  </si>
+  <si>
+    <t>Brent_7_GTAC_7_SIC_Index-07_AGACTGA_GAGTTGGT_S57_L001_R1_001.fastq.gz</t>
+  </si>
+  <si>
+    <t>Brent_8_GTAC_8_SIC_Index-07_CTTGGAA_GAGTTGGT_S58_L001_R1_001.fastq.gz</t>
+  </si>
+  <si>
+    <t>Brent_9_GTAC_9_SIC_Index-07_CCGATTA_GAGTTGGT_S59_L001_R1_001.fastq.gz</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-  <fonts count="6">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="8" x14ac:knownFonts="1">
     <font>
-      <sz val="10.0"/>
+      <sz val="10"/>
       <color rgb="FF000000"/>
       <name val="Arial"/>
     </font>
     <font>
+      <sz val="10"/>
       <name val="Arial"/>
+      <family val="2"/>
     </font>
     <font>
-      <sz val="11.0"/>
+      <sz val="11"/>
       <name val="Calibri"/>
+      <family val="2"/>
     </font>
     <font>
-      <sz val="12.0"/>
+      <sz val="12"/>
       <color rgb="FF222222"/>
       <name val="Arial"/>
+      <family val="2"/>
     </font>
     <font>
-      <sz val="11.0"/>
+      <sz val="11"/>
       <color rgb="FF000000"/>
       <name val="Arial"/>
+      <family val="2"/>
     </font>
     <font>
-      <sz val="12.0"/>
+      <sz val="12"/>
       <color rgb="FF000000"/>
       <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FF000000"/>
+      <name val="Helvetica"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="16"/>
+      <color rgb="FF000000"/>
+      <name val="Helvetica"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="2">
@@ -102,58 +287,371 @@
       <patternFill patternType="none"/>
     </fill>
     <fill>
-      <patternFill patternType="lightGray"/>
+      <patternFill patternType="gray125"/>
     </fill>
   </fills>
   <borders count="1">
-    <border/>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" applyAlignment="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
+  <cellXfs count="11">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment vertical="bottom"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment horizontal="right" vertical="bottom"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="3" numFmtId="0" xfId="0" applyFont="1"/>
-    <xf borderId="0" fillId="0" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="5" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment horizontal="right" vertical="bottom"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment vertical="bottom"/>
-    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="3" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle xfId="0" name="Normal" builtinId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
-<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:x3Unk="http://schemas.microsoft.com/office/drawing/2010/slicer" xmlns:sle15="http://schemas.microsoft.com/office/drawing/2012/slicer"/>
+<file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+  <a:themeElements>
+    <a:clrScheme name="Office">
+      <a:dk1>
+        <a:sysClr val="windowText" lastClr="000000"/>
+      </a:dk1>
+      <a:lt1>
+        <a:sysClr val="window" lastClr="FFFFFF"/>
+      </a:lt1>
+      <a:dk2>
+        <a:srgbClr val="44546A"/>
+      </a:dk2>
+      <a:lt2>
+        <a:srgbClr val="E7E6E6"/>
+      </a:lt2>
+      <a:accent1>
+        <a:srgbClr val="4472C4"/>
+      </a:accent1>
+      <a:accent2>
+        <a:srgbClr val="ED7D31"/>
+      </a:accent2>
+      <a:accent3>
+        <a:srgbClr val="A5A5A5"/>
+      </a:accent3>
+      <a:accent4>
+        <a:srgbClr val="FFC000"/>
+      </a:accent4>
+      <a:accent5>
+        <a:srgbClr val="5B9BD5"/>
+      </a:accent5>
+      <a:accent6>
+        <a:srgbClr val="70AD47"/>
+      </a:accent6>
+      <a:hlink>
+        <a:srgbClr val="0563C1"/>
+      </a:hlink>
+      <a:folHlink>
+        <a:srgbClr val="954F72"/>
+      </a:folHlink>
+    </a:clrScheme>
+    <a:fontScheme name="Office">
+      <a:majorFont>
+        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
+        <a:ea typeface=""/>
+        <a:cs typeface=""/>
+        <a:font script="Jpan" typeface="游ゴシック Light"/>
+        <a:font script="Hang" typeface="맑은 고딕"/>
+        <a:font script="Hans" typeface="等线 Light"/>
+        <a:font script="Hant" typeface="新細明體"/>
+        <a:font script="Arab" typeface="Times New Roman"/>
+        <a:font script="Hebr" typeface="Times New Roman"/>
+        <a:font script="Thai" typeface="Tahoma"/>
+        <a:font script="Ethi" typeface="Nyala"/>
+        <a:font script="Beng" typeface="Vrinda"/>
+        <a:font script="Gujr" typeface="Shruti"/>
+        <a:font script="Khmr" typeface="MoolBoran"/>
+        <a:font script="Knda" typeface="Tunga"/>
+        <a:font script="Guru" typeface="Raavi"/>
+        <a:font script="Cans" typeface="Euphemia"/>
+        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
+        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
+        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
+        <a:font script="Thaa" typeface="MV Boli"/>
+        <a:font script="Deva" typeface="Mangal"/>
+        <a:font script="Telu" typeface="Gautami"/>
+        <a:font script="Taml" typeface="Latha"/>
+        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
+        <a:font script="Orya" typeface="Kalinga"/>
+        <a:font script="Mlym" typeface="Kartika"/>
+        <a:font script="Laoo" typeface="DokChampa"/>
+        <a:font script="Sinh" typeface="Iskoola Pota"/>
+        <a:font script="Mong" typeface="Mongolian Baiti"/>
+        <a:font script="Viet" typeface="Times New Roman"/>
+        <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
+      </a:majorFont>
+      <a:minorFont>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:ea typeface=""/>
+        <a:cs typeface=""/>
+        <a:font script="Jpan" typeface="游ゴシック"/>
+        <a:font script="Hang" typeface="맑은 고딕"/>
+        <a:font script="Hans" typeface="等线"/>
+        <a:font script="Hant" typeface="新細明體"/>
+        <a:font script="Arab" typeface="Arial"/>
+        <a:font script="Hebr" typeface="Arial"/>
+        <a:font script="Thai" typeface="Tahoma"/>
+        <a:font script="Ethi" typeface="Nyala"/>
+        <a:font script="Beng" typeface="Vrinda"/>
+        <a:font script="Gujr" typeface="Shruti"/>
+        <a:font script="Khmr" typeface="DaunPenh"/>
+        <a:font script="Knda" typeface="Tunga"/>
+        <a:font script="Guru" typeface="Raavi"/>
+        <a:font script="Cans" typeface="Euphemia"/>
+        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
+        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
+        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
+        <a:font script="Thaa" typeface="MV Boli"/>
+        <a:font script="Deva" typeface="Mangal"/>
+        <a:font script="Telu" typeface="Gautami"/>
+        <a:font script="Taml" typeface="Latha"/>
+        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
+        <a:font script="Orya" typeface="Kalinga"/>
+        <a:font script="Mlym" typeface="Kartika"/>
+        <a:font script="Laoo" typeface="DokChampa"/>
+        <a:font script="Sinh" typeface="Iskoola Pota"/>
+        <a:font script="Mong" typeface="Mongolian Baiti"/>
+        <a:font script="Viet" typeface="Arial"/>
+        <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
+      </a:minorFont>
+    </a:fontScheme>
+    <a:fmtScheme name="Office">
+      <a:fillStyleLst>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="110000"/>
+                <a:satMod val="105000"/>
+                <a:tint val="67000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="50000">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="105000"/>
+                <a:satMod val="103000"/>
+                <a:tint val="73000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="105000"/>
+                <a:satMod val="109000"/>
+                <a:tint val="81000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="0"/>
+        </a:gradFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:satMod val="103000"/>
+                <a:lumMod val="102000"/>
+                <a:tint val="94000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="50000">
+              <a:schemeClr val="phClr">
+                <a:satMod val="110000"/>
+                <a:lumMod val="100000"/>
+                <a:shade val="100000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="99000"/>
+                <a:satMod val="120000"/>
+                <a:shade val="78000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="0"/>
+        </a:gradFill>
+      </a:fillStyleLst>
+      <a:lnStyleLst>
+        <a:ln w="6350" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+        <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+        <a:ln w="19050" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+      </a:lnStyleLst>
+      <a:effectStyleLst>
+        <a:effectStyle>
+          <a:effectLst/>
+        </a:effectStyle>
+        <a:effectStyle>
+          <a:effectLst/>
+        </a:effectStyle>
+        <a:effectStyle>
+          <a:effectLst>
+            <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
+              <a:srgbClr val="000000">
+                <a:alpha val="63000"/>
+              </a:srgbClr>
+            </a:outerShdw>
+          </a:effectLst>
+        </a:effectStyle>
+      </a:effectStyleLst>
+      <a:bgFillStyleLst>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:solidFill>
+          <a:schemeClr val="phClr">
+            <a:tint val="95000"/>
+            <a:satMod val="170000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:tint val="93000"/>
+                <a:satMod val="150000"/>
+                <a:shade val="98000"/>
+                <a:lumMod val="102000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="50000">
+              <a:schemeClr val="phClr">
+                <a:tint val="98000"/>
+                <a:satMod val="130000"/>
+                <a:shade val="90000"/>
+                <a:lumMod val="103000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:shade val="63000"/>
+                <a:satMod val="120000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="0"/>
+        </a:gradFill>
+      </a:bgFillStyleLst>
+    </a:fmtScheme>
+  </a:themeElements>
+  <a:objectDefaults/>
+  <a:extraClrSchemeLst/>
+  <a:extLst>
+    <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+    </a:ext>
+  </a:extLst>
+</a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
+  <dimension ref="A1:Z49"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="L18" sqref="L18"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr customHeight="1" defaultColWidth="14.43" defaultRowHeight="15.75"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="14.5" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+  <cols>
+    <col min="4" max="4" width="14.5" customWidth="1"/>
+    <col min="5" max="5" width="9.33203125" customWidth="1"/>
+    <col min="6" max="8" width="11.1640625" customWidth="1"/>
+    <col min="9" max="9" width="14.5" customWidth="1"/>
+    <col min="10" max="10" width="12.33203125" customWidth="1"/>
+    <col min="11" max="11" width="14.5" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1">
+    <row r="1" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -205,7 +703,7 @@
       <c r="Y1" s="1"/>
       <c r="Z1" s="1"/>
     </row>
-    <row r="2">
+    <row r="2" spans="1:26" ht="16" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
         <v>12</v>
       </c>
@@ -213,10 +711,10 @@
         <v>13</v>
       </c>
       <c r="C2" s="2">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="D2" s="3">
-        <v>3696.0</v>
+        <v>3696</v>
       </c>
       <c r="F2" s="1" t="s">
         <v>14</v>
@@ -228,13 +726,19 @@
         <v>15</v>
       </c>
       <c r="I2" s="5">
-        <v>0.359</v>
+        <v>0.35899999999999999</v>
+      </c>
+      <c r="J2" s="7">
+        <v>2</v>
       </c>
       <c r="K2" s="2">
-        <v>141.0</v>
-      </c>
-    </row>
-    <row r="3">
+        <v>141</v>
+      </c>
+      <c r="L2" s="8" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="3" spans="1:26" ht="16" x14ac:dyDescent="0.2">
       <c r="A3" s="1" t="s">
         <v>12</v>
       </c>
@@ -242,10 +746,10 @@
         <v>13</v>
       </c>
       <c r="C3" s="2">
-        <v>2.0</v>
+        <v>2</v>
       </c>
       <c r="D3" s="3">
-        <v>3696.0</v>
+        <v>3696</v>
       </c>
       <c r="F3" s="1" t="s">
         <v>14</v>
@@ -259,11 +763,17 @@
       <c r="I3" s="5">
         <v>11.9</v>
       </c>
+      <c r="J3" s="7" t="s">
+        <v>17</v>
+      </c>
       <c r="K3" s="2">
-        <v>17403.0</v>
-      </c>
-    </row>
-    <row r="4">
+        <v>17403</v>
+      </c>
+      <c r="L3" s="8" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="4" spans="1:26" ht="21" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
         <v>12</v>
       </c>
@@ -271,10 +781,10 @@
         <v>13</v>
       </c>
       <c r="C4" s="2">
-        <v>3.0</v>
+        <v>3</v>
       </c>
       <c r="D4" s="3">
-        <v>3696.0</v>
+        <v>3696</v>
       </c>
       <c r="F4" s="1" t="s">
         <v>14</v>
@@ -286,13 +796,19 @@
         <v>15</v>
       </c>
       <c r="I4" s="5">
-        <v>0.346</v>
+        <v>0.34599999999999997</v>
+      </c>
+      <c r="J4" s="7">
+        <v>2</v>
       </c>
       <c r="K4" s="2">
-        <v>586.0</v>
-      </c>
-    </row>
-    <row r="5">
+        <v>586</v>
+      </c>
+      <c r="L4" s="10" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="5" spans="1:26" ht="16" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>12</v>
       </c>
@@ -300,10 +816,10 @@
         <v>13</v>
       </c>
       <c r="C5" s="2">
-        <v>4.0</v>
+        <v>4</v>
       </c>
       <c r="D5" s="3">
-        <v>3696.0</v>
+        <v>3696</v>
       </c>
       <c r="F5" s="1" t="s">
         <v>14</v>
@@ -317,11 +833,17 @@
       <c r="I5" s="5">
         <v>0.251</v>
       </c>
+      <c r="J5" s="7">
+        <v>2</v>
+      </c>
       <c r="K5" s="2">
-        <v>347.0</v>
-      </c>
-    </row>
-    <row r="6">
+        <v>347</v>
+      </c>
+      <c r="L5" s="8" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="6" spans="1:26" ht="16" x14ac:dyDescent="0.2">
       <c r="A6" s="1" t="s">
         <v>12</v>
       </c>
@@ -329,10 +851,10 @@
         <v>13</v>
       </c>
       <c r="C6" s="2">
-        <v>5.0</v>
+        <v>5</v>
       </c>
       <c r="D6" s="3">
-        <v>3696.0</v>
+        <v>3696</v>
       </c>
       <c r="F6" s="1" t="s">
         <v>14</v>
@@ -346,11 +868,17 @@
       <c r="I6" s="5">
         <v>3.98</v>
       </c>
+      <c r="J6" s="7">
+        <v>2.512562814070352</v>
+      </c>
       <c r="K6" s="2">
-        <v>15311.0</v>
-      </c>
-    </row>
-    <row r="7">
+        <v>15311</v>
+      </c>
+      <c r="L6" s="8" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="7" spans="1:26" ht="16" x14ac:dyDescent="0.2">
       <c r="A7" s="1" t="s">
         <v>12</v>
       </c>
@@ -358,10 +886,10 @@
         <v>13</v>
       </c>
       <c r="C7" s="2">
-        <v>6.0</v>
+        <v>6</v>
       </c>
       <c r="D7" s="3">
-        <v>3696.0</v>
+        <v>3696</v>
       </c>
       <c r="F7" s="1" t="s">
         <v>14</v>
@@ -375,11 +903,17 @@
       <c r="I7" s="5">
         <v>2.88</v>
       </c>
+      <c r="J7" s="7">
+        <v>3.4722222222222223</v>
+      </c>
       <c r="K7" s="2">
-        <v>14967.0</v>
-      </c>
-    </row>
-    <row r="8">
+        <v>14967</v>
+      </c>
+      <c r="L7" s="8" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="8" spans="1:26" ht="16" x14ac:dyDescent="0.2">
       <c r="A8" s="1" t="s">
         <v>12</v>
       </c>
@@ -387,10 +921,10 @@
         <v>16</v>
       </c>
       <c r="C8" s="2">
-        <v>25.0</v>
+        <v>25</v>
       </c>
       <c r="D8" s="3">
-        <v>3696.0</v>
+        <v>3696</v>
       </c>
       <c r="F8" s="1" t="s">
         <v>14</v>
@@ -402,13 +936,19 @@
         <v>15</v>
       </c>
       <c r="I8" s="5">
-        <v>0.288</v>
+        <v>0.28799999999999998</v>
+      </c>
+      <c r="J8" s="7">
+        <v>2</v>
       </c>
       <c r="K8" s="2">
-        <v>1427.0</v>
-      </c>
-    </row>
-    <row r="9">
+        <v>1427</v>
+      </c>
+      <c r="L8" s="8" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="9" spans="1:26" ht="16" x14ac:dyDescent="0.2">
       <c r="A9" s="1" t="s">
         <v>12</v>
       </c>
@@ -416,10 +956,10 @@
         <v>16</v>
       </c>
       <c r="C9" s="2">
-        <v>26.0</v>
+        <v>26</v>
       </c>
       <c r="D9" s="3">
-        <v>3696.0</v>
+        <v>3696</v>
       </c>
       <c r="F9" s="1" t="s">
         <v>14</v>
@@ -433,11 +973,17 @@
       <c r="I9" s="5">
         <v>2.84</v>
       </c>
+      <c r="J9" s="7">
+        <v>3.5211267605633805</v>
+      </c>
       <c r="K9" s="2">
-        <v>9859.0</v>
-      </c>
-    </row>
-    <row r="10">
+        <v>9859</v>
+      </c>
+      <c r="L9" s="8" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="10" spans="1:26" ht="16" x14ac:dyDescent="0.2">
       <c r="A10" s="1" t="s">
         <v>12</v>
       </c>
@@ -445,10 +991,10 @@
         <v>16</v>
       </c>
       <c r="C10" s="2">
-        <v>27.0</v>
+        <v>27</v>
       </c>
       <c r="D10" s="3">
-        <v>3696.0</v>
+        <v>3696</v>
       </c>
       <c r="F10" s="1" t="s">
         <v>14</v>
@@ -462,11 +1008,17 @@
       <c r="I10" s="5">
         <v>2.62</v>
       </c>
+      <c r="J10" s="7">
+        <v>3.8167938931297707</v>
+      </c>
       <c r="K10" s="2">
-        <v>11282.0</v>
-      </c>
-    </row>
-    <row r="11">
+        <v>11282</v>
+      </c>
+      <c r="L10" s="8" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="11" spans="1:26" ht="16" x14ac:dyDescent="0.2">
       <c r="A11" s="1" t="s">
         <v>12</v>
       </c>
@@ -474,10 +1026,10 @@
         <v>16</v>
       </c>
       <c r="C11" s="2">
-        <v>28.0</v>
+        <v>28</v>
       </c>
       <c r="D11" s="3">
-        <v>3696.0</v>
+        <v>3696</v>
       </c>
       <c r="F11" s="1" t="s">
         <v>14</v>
@@ -491,11 +1043,17 @@
       <c r="I11" s="5">
         <v>1.7</v>
       </c>
+      <c r="J11" s="7">
+        <v>2</v>
+      </c>
       <c r="K11" s="2">
-        <v>5956.0</v>
-      </c>
-    </row>
-    <row r="12">
+        <v>5956</v>
+      </c>
+      <c r="L11" s="8" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="12" spans="1:26" ht="16" x14ac:dyDescent="0.2">
       <c r="A12" s="1" t="s">
         <v>12</v>
       </c>
@@ -503,10 +1061,10 @@
         <v>16</v>
       </c>
       <c r="C12" s="2">
-        <v>29.0</v>
+        <v>29</v>
       </c>
       <c r="D12" s="3">
-        <v>3696.0</v>
+        <v>3696</v>
       </c>
       <c r="F12" s="1" t="s">
         <v>14</v>
@@ -520,11 +1078,17 @@
       <c r="I12" s="5">
         <v>6.37</v>
       </c>
+      <c r="J12" s="7">
+        <v>1.5698587127158556</v>
+      </c>
       <c r="K12" s="2">
-        <v>6092.0</v>
-      </c>
-    </row>
-    <row r="13">
+        <v>6092</v>
+      </c>
+      <c r="L12" s="8" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="13" spans="1:26" ht="16" x14ac:dyDescent="0.2">
       <c r="A13" s="1" t="s">
         <v>12</v>
       </c>
@@ -532,10 +1096,10 @@
         <v>16</v>
       </c>
       <c r="C13" s="2">
-        <v>30.0</v>
+        <v>30</v>
       </c>
       <c r="D13" s="3">
-        <v>3696.0</v>
+        <v>3696</v>
       </c>
       <c r="F13" s="1" t="s">
         <v>14</v>
@@ -549,11 +1113,17 @@
       <c r="I13" s="5">
         <v>1.62</v>
       </c>
+      <c r="J13" s="7">
+        <v>2</v>
+      </c>
       <c r="K13" s="2">
-        <v>9378.0</v>
-      </c>
-    </row>
-    <row r="14">
+        <v>9378</v>
+      </c>
+      <c r="L13" s="8" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="14" spans="1:26" ht="16" x14ac:dyDescent="0.2">
       <c r="A14" s="1" t="s">
         <v>12</v>
       </c>
@@ -561,10 +1131,10 @@
         <v>13</v>
       </c>
       <c r="C14" s="2">
-        <v>7.0</v>
+        <v>7</v>
       </c>
       <c r="D14" s="3">
-        <v>3696.0</v>
+        <v>3696</v>
       </c>
       <c r="F14" s="1" t="s">
         <v>14</v>
@@ -578,11 +1148,17 @@
       <c r="I14" s="5">
         <v>18.7</v>
       </c>
+      <c r="J14" s="7" t="s">
+        <v>17</v>
+      </c>
       <c r="K14" s="2">
-        <v>18664.0</v>
-      </c>
-    </row>
-    <row r="15">
+        <v>18664</v>
+      </c>
+      <c r="L14" s="8" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="15" spans="1:26" ht="16" x14ac:dyDescent="0.2">
       <c r="A15" s="1" t="s">
         <v>12</v>
       </c>
@@ -590,10 +1166,10 @@
         <v>13</v>
       </c>
       <c r="C15" s="2">
-        <v>8.0</v>
+        <v>8</v>
       </c>
       <c r="D15" s="3">
-        <v>3696.0</v>
+        <v>3696</v>
       </c>
       <c r="F15" s="1" t="s">
         <v>14</v>
@@ -607,11 +1183,17 @@
       <c r="I15" s="5">
         <v>21.3</v>
       </c>
+      <c r="J15" s="7" t="s">
+        <v>17</v>
+      </c>
       <c r="K15" s="2">
-        <v>10724.0</v>
-      </c>
-    </row>
-    <row r="16">
+        <v>10724</v>
+      </c>
+      <c r="L15" s="8" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="16" spans="1:26" ht="16" x14ac:dyDescent="0.2">
       <c r="A16" s="1" t="s">
         <v>12</v>
       </c>
@@ -619,10 +1201,10 @@
         <v>13</v>
       </c>
       <c r="C16" s="2">
-        <v>9.0</v>
+        <v>9</v>
       </c>
       <c r="D16" s="3">
-        <v>3696.0</v>
+        <v>3696</v>
       </c>
       <c r="F16" s="1" t="s">
         <v>14</v>
@@ -636,11 +1218,17 @@
       <c r="I16" s="5">
         <v>2.84</v>
       </c>
+      <c r="J16" s="7">
+        <v>3.5211267605633805</v>
+      </c>
       <c r="K16" s="2">
-        <v>25632.0</v>
-      </c>
-    </row>
-    <row r="17">
+        <v>25632</v>
+      </c>
+      <c r="L16" s="8" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="17" spans="1:12" ht="16" x14ac:dyDescent="0.2">
       <c r="A17" s="1" t="s">
         <v>12</v>
       </c>
@@ -648,10 +1236,10 @@
         <v>13</v>
       </c>
       <c r="C17" s="2">
-        <v>10.0</v>
+        <v>10</v>
       </c>
       <c r="D17" s="3">
-        <v>3696.0</v>
+        <v>3696</v>
       </c>
       <c r="F17" s="1" t="s">
         <v>14</v>
@@ -665,11 +1253,17 @@
       <c r="I17" s="5">
         <v>13.5</v>
       </c>
+      <c r="J17" s="7" t="s">
+        <v>17</v>
+      </c>
       <c r="K17" s="2">
-        <v>17674.0</v>
-      </c>
-    </row>
-    <row r="18">
+        <v>17674</v>
+      </c>
+      <c r="L17" s="8" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="18" spans="1:12" ht="16" x14ac:dyDescent="0.2">
       <c r="A18" s="1" t="s">
         <v>12</v>
       </c>
@@ -677,10 +1271,10 @@
         <v>13</v>
       </c>
       <c r="C18" s="2">
-        <v>11.0</v>
+        <v>11</v>
       </c>
       <c r="D18" s="3">
-        <v>3696.0</v>
+        <v>3696</v>
       </c>
       <c r="F18" s="1" t="s">
         <v>14</v>
@@ -692,13 +1286,19 @@
         <v>15</v>
       </c>
       <c r="I18" s="5">
-        <v>18.1</v>
+        <v>18.100000000000001</v>
+      </c>
+      <c r="J18" s="7" t="s">
+        <v>17</v>
       </c>
       <c r="K18" s="2">
-        <v>15610.0</v>
-      </c>
-    </row>
-    <row r="19">
+        <v>15610</v>
+      </c>
+      <c r="L18" s="8" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="19" spans="1:12" ht="16" x14ac:dyDescent="0.2">
       <c r="A19" s="1" t="s">
         <v>12</v>
       </c>
@@ -706,10 +1306,10 @@
         <v>13</v>
       </c>
       <c r="C19" s="2">
-        <v>12.0</v>
+        <v>12</v>
       </c>
       <c r="D19" s="3">
-        <v>3696.0</v>
+        <v>3696</v>
       </c>
       <c r="F19" s="1" t="s">
         <v>14</v>
@@ -723,11 +1323,17 @@
       <c r="I19" s="5">
         <v>46.1</v>
       </c>
+      <c r="J19" s="7" t="s">
+        <v>17</v>
+      </c>
       <c r="K19" s="2">
-        <v>7546.0</v>
-      </c>
-    </row>
-    <row r="20">
+        <v>7546</v>
+      </c>
+      <c r="L19" s="8" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="20" spans="1:12" ht="16" x14ac:dyDescent="0.2">
       <c r="A20" s="1" t="s">
         <v>12</v>
       </c>
@@ -735,10 +1341,10 @@
         <v>16</v>
       </c>
       <c r="C20" s="2">
-        <v>31.0</v>
+        <v>31</v>
       </c>
       <c r="D20" s="3">
-        <v>3696.0</v>
+        <v>3696</v>
       </c>
       <c r="F20" s="1" t="s">
         <v>14</v>
@@ -752,11 +1358,17 @@
       <c r="I20" s="5">
         <v>0.219</v>
       </c>
+      <c r="J20" s="7">
+        <v>2</v>
+      </c>
       <c r="K20" s="2">
-        <v>874.0</v>
-      </c>
-    </row>
-    <row r="21">
+        <v>874</v>
+      </c>
+      <c r="L20" s="8" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="21" spans="1:12" ht="16" x14ac:dyDescent="0.2">
       <c r="A21" s="1" t="s">
         <v>12</v>
       </c>
@@ -764,10 +1376,10 @@
         <v>16</v>
       </c>
       <c r="C21" s="2">
-        <v>32.0</v>
+        <v>32</v>
       </c>
       <c r="D21" s="3">
-        <v>3696.0</v>
+        <v>3696</v>
       </c>
       <c r="F21" s="1" t="s">
         <v>14</v>
@@ -781,11 +1393,17 @@
       <c r="I21" s="5">
         <v>6.18</v>
       </c>
+      <c r="J21" s="7">
+        <v>1.6181229773462784</v>
+      </c>
       <c r="K21" s="2">
-        <v>20760.0</v>
-      </c>
-    </row>
-    <row r="22">
+        <v>20760</v>
+      </c>
+      <c r="L21" s="8" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="22" spans="1:12" ht="16" x14ac:dyDescent="0.2">
       <c r="A22" s="1" t="s">
         <v>12</v>
       </c>
@@ -793,10 +1411,10 @@
         <v>16</v>
       </c>
       <c r="C22" s="2">
-        <v>33.0</v>
+        <v>33</v>
       </c>
       <c r="D22" s="3">
-        <v>3696.0</v>
+        <v>3696</v>
       </c>
       <c r="F22" s="1" t="s">
         <v>14</v>
@@ -808,13 +1426,19 @@
         <v>15</v>
       </c>
       <c r="I22" s="5">
-        <v>18.0</v>
+        <v>18</v>
+      </c>
+      <c r="J22" s="7" t="s">
+        <v>17</v>
       </c>
       <c r="K22" s="2">
-        <v>8821.0</v>
-      </c>
-    </row>
-    <row r="23">
+        <v>8821</v>
+      </c>
+      <c r="L22" s="8" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="23" spans="1:12" ht="16" x14ac:dyDescent="0.2">
       <c r="A23" s="1" t="s">
         <v>12</v>
       </c>
@@ -822,10 +1446,10 @@
         <v>16</v>
       </c>
       <c r="C23" s="2">
-        <v>34.0</v>
+        <v>34</v>
       </c>
       <c r="D23" s="3">
-        <v>3696.0</v>
+        <v>3696</v>
       </c>
       <c r="F23" s="1" t="s">
         <v>14</v>
@@ -839,11 +1463,17 @@
       <c r="I23" s="5">
         <v>10.8</v>
       </c>
+      <c r="J23" s="7" t="s">
+        <v>17</v>
+      </c>
       <c r="K23" s="2">
-        <v>12770.0</v>
-      </c>
-    </row>
-    <row r="24">
+        <v>12770</v>
+      </c>
+      <c r="L23" s="8" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="24" spans="1:12" ht="16" x14ac:dyDescent="0.2">
       <c r="A24" s="1" t="s">
         <v>12</v>
       </c>
@@ -851,10 +1481,10 @@
         <v>16</v>
       </c>
       <c r="C24" s="2">
-        <v>35.0</v>
+        <v>35</v>
       </c>
       <c r="D24" s="3">
-        <v>3696.0</v>
+        <v>3696</v>
       </c>
       <c r="F24" s="1" t="s">
         <v>14</v>
@@ -866,13 +1496,19 @@
         <v>15</v>
       </c>
       <c r="I24" s="5">
-        <v>26.0</v>
+        <v>26</v>
+      </c>
+      <c r="J24" s="7" t="s">
+        <v>17</v>
       </c>
       <c r="K24" s="2">
-        <v>13933.0</v>
-      </c>
-    </row>
-    <row r="25">
+        <v>13933</v>
+      </c>
+      <c r="L24" s="8" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="25" spans="1:12" ht="16" x14ac:dyDescent="0.2">
       <c r="A25" s="1" t="s">
         <v>12</v>
       </c>
@@ -880,10 +1516,10 @@
         <v>16</v>
       </c>
       <c r="C25" s="2">
-        <v>36.0</v>
+        <v>36</v>
       </c>
       <c r="D25" s="3">
-        <v>3696.0</v>
+        <v>3696</v>
       </c>
       <c r="F25" s="1" t="s">
         <v>14</v>
@@ -897,11 +1533,17 @@
       <c r="I25" s="5">
         <v>2.02</v>
       </c>
+      <c r="J25" s="7">
+        <v>4.9504950495049505</v>
+      </c>
       <c r="K25" s="2">
-        <v>9538.0</v>
-      </c>
-    </row>
-    <row r="26">
+        <v>9538</v>
+      </c>
+      <c r="L25" s="8" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="26" spans="1:12" ht="16" x14ac:dyDescent="0.2">
       <c r="A26" s="1" t="s">
         <v>12</v>
       </c>
@@ -909,10 +1551,10 @@
         <v>13</v>
       </c>
       <c r="C26" s="2">
-        <v>13.0</v>
+        <v>13</v>
       </c>
       <c r="D26" s="3">
-        <v>3696.0</v>
+        <v>3696</v>
       </c>
       <c r="F26" s="1" t="s">
         <v>14</v>
@@ -924,13 +1566,19 @@
         <v>15</v>
       </c>
       <c r="I26" s="5">
-        <v>16.9</v>
+        <v>16.899999999999999</v>
+      </c>
+      <c r="J26" s="7" t="s">
+        <v>17</v>
       </c>
       <c r="K26" s="2">
-        <v>13250.0</v>
-      </c>
-    </row>
-    <row r="27">
+        <v>13250</v>
+      </c>
+      <c r="L26" s="8" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="27" spans="1:12" ht="16" x14ac:dyDescent="0.2">
       <c r="A27" s="1" t="s">
         <v>12</v>
       </c>
@@ -938,10 +1586,10 @@
         <v>13</v>
       </c>
       <c r="C27" s="2">
-        <v>14.0</v>
+        <v>14</v>
       </c>
       <c r="D27" s="3">
-        <v>3696.0</v>
+        <v>3696</v>
       </c>
       <c r="F27" s="1" t="s">
         <v>14</v>
@@ -955,11 +1603,17 @@
       <c r="I27" s="5">
         <v>18.5</v>
       </c>
+      <c r="J27" s="7" t="s">
+        <v>17</v>
+      </c>
       <c r="K27" s="2">
-        <v>18456.0</v>
-      </c>
-    </row>
-    <row r="28">
+        <v>18456</v>
+      </c>
+      <c r="L27" s="8" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="28" spans="1:12" ht="16" x14ac:dyDescent="0.2">
       <c r="A28" s="1" t="s">
         <v>12</v>
       </c>
@@ -967,10 +1621,10 @@
         <v>13</v>
       </c>
       <c r="C28" s="2">
-        <v>15.0</v>
+        <v>15</v>
       </c>
       <c r="D28" s="3">
-        <v>3696.0</v>
+        <v>3696</v>
       </c>
       <c r="F28" s="1" t="s">
         <v>14</v>
@@ -984,11 +1638,17 @@
       <c r="I28" s="5">
         <v>3.31</v>
       </c>
+      <c r="J28" s="7">
+        <v>3.0211480362537766</v>
+      </c>
       <c r="K28" s="2">
-        <v>11701.0</v>
-      </c>
-    </row>
-    <row r="29">
+        <v>11701</v>
+      </c>
+      <c r="L28" s="8" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="29" spans="1:12" ht="16" x14ac:dyDescent="0.2">
       <c r="A29" s="1" t="s">
         <v>12</v>
       </c>
@@ -996,10 +1656,10 @@
         <v>13</v>
       </c>
       <c r="C29" s="2">
-        <v>16.0</v>
+        <v>16</v>
       </c>
       <c r="D29" s="3">
-        <v>3696.0</v>
+        <v>3696</v>
       </c>
       <c r="F29" s="1" t="s">
         <v>14</v>
@@ -1013,11 +1673,17 @@
       <c r="I29" s="5">
         <v>4.34</v>
       </c>
+      <c r="J29" s="7">
+        <v>2.3041474654377883</v>
+      </c>
       <c r="K29" s="2">
-        <v>7831.0</v>
-      </c>
-    </row>
-    <row r="30">
+        <v>7831</v>
+      </c>
+      <c r="L29" s="8" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="30" spans="1:12" ht="16" x14ac:dyDescent="0.2">
       <c r="A30" s="1" t="s">
         <v>12</v>
       </c>
@@ -1025,10 +1691,10 @@
         <v>13</v>
       </c>
       <c r="C30" s="2">
-        <v>17.0</v>
+        <v>17</v>
       </c>
       <c r="D30" s="3">
-        <v>3696.0</v>
+        <v>3696</v>
       </c>
       <c r="F30" s="1" t="s">
         <v>14</v>
@@ -1042,11 +1708,17 @@
       <c r="I30" s="5">
         <v>2.73</v>
       </c>
+      <c r="J30" s="7">
+        <v>3.6630036630036629</v>
+      </c>
       <c r="K30" s="2">
-        <v>17052.0</v>
-      </c>
-    </row>
-    <row r="31">
+        <v>17052</v>
+      </c>
+      <c r="L30" s="8" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="31" spans="1:12" ht="16" x14ac:dyDescent="0.2">
       <c r="A31" s="1" t="s">
         <v>12</v>
       </c>
@@ -1054,10 +1726,10 @@
         <v>13</v>
       </c>
       <c r="C31" s="2">
-        <v>18.0</v>
+        <v>18</v>
       </c>
       <c r="D31" s="3">
-        <v>3696.0</v>
+        <v>3696</v>
       </c>
       <c r="F31" s="1" t="s">
         <v>14</v>
@@ -1071,11 +1743,17 @@
       <c r="I31" s="5">
         <v>7.93</v>
       </c>
+      <c r="J31" s="7">
+        <v>1.2610340479192939</v>
+      </c>
       <c r="K31" s="2">
-        <v>11263.0</v>
-      </c>
-    </row>
-    <row r="32">
+        <v>11263</v>
+      </c>
+      <c r="L31" s="8" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="32" spans="1:12" ht="16" x14ac:dyDescent="0.2">
       <c r="A32" s="1" t="s">
         <v>12</v>
       </c>
@@ -1083,10 +1761,10 @@
         <v>16</v>
       </c>
       <c r="C32" s="2">
-        <v>37.0</v>
+        <v>37</v>
       </c>
       <c r="D32" s="3">
-        <v>3696.0</v>
+        <v>3696</v>
       </c>
       <c r="F32" s="1" t="s">
         <v>14</v>
@@ -1100,11 +1778,17 @@
       <c r="I32" s="5">
         <v>1.73</v>
       </c>
+      <c r="J32" s="7">
+        <v>2</v>
+      </c>
       <c r="K32" s="2">
-        <v>13911.0</v>
-      </c>
-    </row>
-    <row r="33">
+        <v>13911</v>
+      </c>
+      <c r="L32" s="8" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="33" spans="1:14" ht="16" x14ac:dyDescent="0.2">
       <c r="A33" s="1" t="s">
         <v>12</v>
       </c>
@@ -1112,10 +1796,10 @@
         <v>16</v>
       </c>
       <c r="C33" s="2">
-        <v>38.0</v>
+        <v>38</v>
       </c>
       <c r="D33" s="3">
-        <v>3696.0</v>
+        <v>3696</v>
       </c>
       <c r="F33" s="1" t="s">
         <v>14</v>
@@ -1129,11 +1813,17 @@
       <c r="I33" s="5">
         <v>5.43</v>
       </c>
+      <c r="J33" s="7">
+        <v>1.8416206261510131</v>
+      </c>
       <c r="K33" s="2">
-        <v>21803.0</v>
-      </c>
-    </row>
-    <row r="34">
+        <v>21803</v>
+      </c>
+      <c r="L33" s="8" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="34" spans="1:14" ht="16" x14ac:dyDescent="0.2">
       <c r="A34" s="1" t="s">
         <v>12</v>
       </c>
@@ -1141,10 +1831,10 @@
         <v>16</v>
       </c>
       <c r="C34" s="2">
-        <v>39.0</v>
+        <v>39</v>
       </c>
       <c r="D34" s="3">
-        <v>3696.0</v>
+        <v>3696</v>
       </c>
       <c r="F34" s="1" t="s">
         <v>14</v>
@@ -1156,13 +1846,22 @@
         <v>15</v>
       </c>
       <c r="I34" s="5">
-        <v>8.97</v>
+        <v>8.9700000000000006</v>
+      </c>
+      <c r="J34" s="7">
+        <v>1.1148272017837235</v>
       </c>
       <c r="K34" s="2">
-        <v>7625.0</v>
-      </c>
-    </row>
-    <row r="35">
+        <v>7625</v>
+      </c>
+      <c r="L34" s="8" t="s">
+        <v>49</v>
+      </c>
+      <c r="N34" s="8" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="35" spans="1:14" ht="16" x14ac:dyDescent="0.2">
       <c r="A35" s="1" t="s">
         <v>12</v>
       </c>
@@ -1170,10 +1869,10 @@
         <v>16</v>
       </c>
       <c r="C35" s="2">
-        <v>40.0</v>
+        <v>40</v>
       </c>
       <c r="D35" s="3">
-        <v>3696.0</v>
+        <v>3696</v>
       </c>
       <c r="F35" s="1" t="s">
         <v>14</v>
@@ -1187,11 +1886,17 @@
       <c r="I35" s="5">
         <v>2.02</v>
       </c>
+      <c r="J35" s="7">
+        <v>4.9504950495049505</v>
+      </c>
       <c r="K35" s="2">
-        <v>13320.0</v>
-      </c>
-    </row>
-    <row r="36">
+        <v>13320</v>
+      </c>
+      <c r="L35" s="8" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="36" spans="1:14" ht="16" x14ac:dyDescent="0.2">
       <c r="A36" s="1" t="s">
         <v>12</v>
       </c>
@@ -1199,10 +1904,10 @@
         <v>16</v>
       </c>
       <c r="C36" s="2">
-        <v>41.0</v>
+        <v>41</v>
       </c>
       <c r="D36" s="3">
-        <v>3696.0</v>
+        <v>3696</v>
       </c>
       <c r="F36" s="1" t="s">
         <v>14</v>
@@ -1214,13 +1919,19 @@
         <v>15</v>
       </c>
       <c r="I36" s="5">
-        <v>0.814</v>
+        <v>0.81399999999999995</v>
+      </c>
+      <c r="J36" s="7">
+        <v>2</v>
       </c>
       <c r="K36" s="2">
-        <v>2519.0</v>
-      </c>
-    </row>
-    <row r="37">
+        <v>2519</v>
+      </c>
+      <c r="L36" s="8" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="37" spans="1:14" ht="16" x14ac:dyDescent="0.2">
       <c r="A37" s="1" t="s">
         <v>12</v>
       </c>
@@ -1228,10 +1939,10 @@
         <v>16</v>
       </c>
       <c r="C37" s="2">
-        <v>42.0</v>
+        <v>42</v>
       </c>
       <c r="D37" s="3">
-        <v>3696.0</v>
+        <v>3696</v>
       </c>
       <c r="F37" s="1" t="s">
         <v>14</v>
@@ -1245,11 +1956,17 @@
       <c r="I37" s="5">
         <v>9.18</v>
       </c>
+      <c r="J37" s="7">
+        <v>1.0893246187363834</v>
+      </c>
       <c r="K37" s="2">
-        <v>9191.0</v>
-      </c>
-    </row>
-    <row r="38">
+        <v>9191</v>
+      </c>
+      <c r="L37" s="8" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="38" spans="1:14" ht="16" x14ac:dyDescent="0.2">
       <c r="A38" s="1" t="s">
         <v>12</v>
       </c>
@@ -1257,10 +1974,10 @@
         <v>13</v>
       </c>
       <c r="C38" s="2">
-        <v>19.0</v>
+        <v>19</v>
       </c>
       <c r="D38" s="3">
-        <v>3696.0</v>
+        <v>3696</v>
       </c>
       <c r="F38" s="1" t="s">
         <v>14</v>
@@ -1274,11 +1991,17 @@
       <c r="I38" s="5">
         <v>4.92</v>
       </c>
+      <c r="J38" s="7">
+        <v>2.0325203252032522</v>
+      </c>
       <c r="K38" s="2">
-        <v>12940.0</v>
-      </c>
-    </row>
-    <row r="39">
+        <v>12940</v>
+      </c>
+      <c r="L38" s="8" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="39" spans="1:14" ht="16" x14ac:dyDescent="0.2">
       <c r="A39" s="1" t="s">
         <v>12</v>
       </c>
@@ -1286,10 +2009,10 @@
         <v>13</v>
       </c>
       <c r="C39" s="2">
-        <v>20.0</v>
+        <v>20</v>
       </c>
       <c r="D39" s="3">
-        <v>3696.0</v>
+        <v>3696</v>
       </c>
       <c r="F39" s="1" t="s">
         <v>14</v>
@@ -1301,13 +2024,19 @@
         <v>15</v>
       </c>
       <c r="I39" s="5">
-        <v>18.1</v>
+        <v>18.100000000000001</v>
+      </c>
+      <c r="J39" s="7" t="s">
+        <v>17</v>
       </c>
       <c r="K39" s="2">
-        <v>17701.0</v>
-      </c>
-    </row>
-    <row r="40">
+        <v>17701</v>
+      </c>
+      <c r="L39" s="8" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="40" spans="1:14" ht="16" x14ac:dyDescent="0.2">
       <c r="A40" s="1" t="s">
         <v>12</v>
       </c>
@@ -1315,10 +2044,10 @@
         <v>13</v>
       </c>
       <c r="C40" s="2">
-        <v>21.0</v>
+        <v>21</v>
       </c>
       <c r="D40" s="3">
-        <v>3696.0</v>
+        <v>3696</v>
       </c>
       <c r="F40" s="1" t="s">
         <v>14</v>
@@ -1330,13 +2059,19 @@
         <v>15</v>
       </c>
       <c r="I40" s="5">
-        <v>0.398</v>
+        <v>0.39800000000000002</v>
+      </c>
+      <c r="J40" s="7">
+        <v>2</v>
       </c>
       <c r="K40" s="2">
-        <v>633.0</v>
-      </c>
-    </row>
-    <row r="41">
+        <v>633</v>
+      </c>
+      <c r="L40" s="8" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="41" spans="1:14" ht="16" x14ac:dyDescent="0.2">
       <c r="A41" s="1" t="s">
         <v>12</v>
       </c>
@@ -1344,10 +2079,10 @@
         <v>13</v>
       </c>
       <c r="C41" s="2">
-        <v>22.0</v>
+        <v>22</v>
       </c>
       <c r="D41" s="3">
-        <v>3696.0</v>
+        <v>3696</v>
       </c>
       <c r="F41" s="1" t="s">
         <v>14</v>
@@ -1361,11 +2096,17 @@
       <c r="I41" s="5">
         <v>21.6</v>
       </c>
+      <c r="J41" s="7" t="s">
+        <v>17</v>
+      </c>
       <c r="K41" s="2">
-        <v>25465.0</v>
-      </c>
-    </row>
-    <row r="42">
+        <v>25465</v>
+      </c>
+      <c r="L41" s="8" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="42" spans="1:14" ht="16" x14ac:dyDescent="0.2">
       <c r="A42" s="1" t="s">
         <v>12</v>
       </c>
@@ -1373,10 +2114,10 @@
         <v>13</v>
       </c>
       <c r="C42" s="2">
-        <v>23.0</v>
+        <v>23</v>
       </c>
       <c r="D42" s="3">
-        <v>3696.0</v>
+        <v>3696</v>
       </c>
       <c r="F42" s="1" t="s">
         <v>14</v>
@@ -1390,11 +2131,17 @@
       <c r="I42" s="5">
         <v>15.5</v>
       </c>
+      <c r="J42" s="7" t="s">
+        <v>17</v>
+      </c>
       <c r="K42" s="2">
-        <v>13798.0</v>
-      </c>
-    </row>
-    <row r="43">
+        <v>13798</v>
+      </c>
+      <c r="L42" s="8" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="43" spans="1:14" ht="16" x14ac:dyDescent="0.2">
       <c r="A43" s="1" t="s">
         <v>12</v>
       </c>
@@ -1402,10 +2149,10 @@
         <v>13</v>
       </c>
       <c r="C43" s="2">
-        <v>24.0</v>
+        <v>24</v>
       </c>
       <c r="D43" s="3">
-        <v>3696.0</v>
+        <v>3696</v>
       </c>
       <c r="F43" s="1" t="s">
         <v>14</v>
@@ -1419,11 +2166,17 @@
       <c r="I43" s="5">
         <v>45.8</v>
       </c>
+      <c r="J43" s="7" t="s">
+        <v>17</v>
+      </c>
       <c r="K43" s="2">
-        <v>11996.0</v>
-      </c>
-    </row>
-    <row r="44">
+        <v>11996</v>
+      </c>
+      <c r="L43" s="8" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="44" spans="1:14" ht="16" x14ac:dyDescent="0.2">
       <c r="A44" s="1" t="s">
         <v>12</v>
       </c>
@@ -1431,10 +2184,10 @@
         <v>16</v>
       </c>
       <c r="C44" s="2">
-        <v>43.0</v>
+        <v>43</v>
       </c>
       <c r="D44" s="3">
-        <v>3696.0</v>
+        <v>3696</v>
       </c>
       <c r="F44" s="1" t="s">
         <v>14</v>
@@ -1446,13 +2199,19 @@
         <v>15</v>
       </c>
       <c r="I44" s="5">
-        <v>17.6</v>
+        <v>17.600000000000001</v>
+      </c>
+      <c r="J44" s="7" t="s">
+        <v>17</v>
       </c>
       <c r="K44" s="2">
-        <v>11777.0</v>
-      </c>
-    </row>
-    <row r="45">
+        <v>11777</v>
+      </c>
+      <c r="L44" s="8" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="45" spans="1:14" ht="16" x14ac:dyDescent="0.2">
       <c r="A45" s="1" t="s">
         <v>12</v>
       </c>
@@ -1460,10 +2219,10 @@
         <v>16</v>
       </c>
       <c r="C45" s="2">
-        <v>44.0</v>
+        <v>44</v>
       </c>
       <c r="D45" s="3">
-        <v>3696.0</v>
+        <v>3696</v>
       </c>
       <c r="F45" s="1" t="s">
         <v>14</v>
@@ -1475,13 +2234,19 @@
         <v>15</v>
       </c>
       <c r="I45" s="5">
-        <v>40.7</v>
+        <v>40.700000000000003</v>
+      </c>
+      <c r="J45" s="7" t="s">
+        <v>17</v>
       </c>
       <c r="K45" s="2">
-        <v>10642.0</v>
-      </c>
-    </row>
-    <row r="46">
+        <v>10642</v>
+      </c>
+      <c r="L45" s="8" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="46" spans="1:14" ht="16" x14ac:dyDescent="0.2">
       <c r="A46" s="1" t="s">
         <v>12</v>
       </c>
@@ -1489,10 +2254,10 @@
         <v>16</v>
       </c>
       <c r="C46" s="2">
-        <v>45.0</v>
+        <v>45</v>
       </c>
       <c r="D46" s="3">
-        <v>3696.0</v>
+        <v>3696</v>
       </c>
       <c r="F46" s="1" t="s">
         <v>14</v>
@@ -1506,11 +2271,17 @@
       <c r="I46" s="5">
         <v>4.79</v>
       </c>
+      <c r="J46" s="7">
+        <v>2.0876826722338206</v>
+      </c>
       <c r="K46" s="2">
-        <v>11928.0</v>
-      </c>
-    </row>
-    <row r="47">
+        <v>11928</v>
+      </c>
+      <c r="L46" s="8" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="47" spans="1:14" ht="16" x14ac:dyDescent="0.2">
       <c r="A47" s="1" t="s">
         <v>12</v>
       </c>
@@ -1518,10 +2289,10 @@
         <v>16</v>
       </c>
       <c r="C47" s="2">
-        <v>46.0</v>
+        <v>46</v>
       </c>
       <c r="D47" s="3">
-        <v>3696.0</v>
+        <v>3696</v>
       </c>
       <c r="F47" s="1" t="s">
         <v>14</v>
@@ -1535,11 +2306,17 @@
       <c r="I47" s="5">
         <v>9.76</v>
       </c>
+      <c r="J47" s="7">
+        <v>1.0245901639344261</v>
+      </c>
       <c r="K47" s="2">
-        <v>8386.0</v>
-      </c>
-    </row>
-    <row r="48">
+        <v>8386</v>
+      </c>
+      <c r="L47" s="8" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="48" spans="1:14" ht="16" x14ac:dyDescent="0.2">
       <c r="A48" s="1" t="s">
         <v>12</v>
       </c>
@@ -1547,10 +2324,10 @@
         <v>16</v>
       </c>
       <c r="C48" s="2">
-        <v>47.0</v>
+        <v>47</v>
       </c>
       <c r="D48" s="3">
-        <v>3696.0</v>
+        <v>3696</v>
       </c>
       <c r="F48" s="1" t="s">
         <v>14</v>
@@ -1564,11 +2341,17 @@
       <c r="I48" s="5">
         <v>15.2</v>
       </c>
+      <c r="J48" s="7" t="s">
+        <v>17</v>
+      </c>
       <c r="K48" s="2">
-        <v>7925.0</v>
-      </c>
-    </row>
-    <row r="49">
+        <v>7925</v>
+      </c>
+      <c r="L48" s="8" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="49" spans="1:12" ht="16" x14ac:dyDescent="0.2">
       <c r="A49" s="1" t="s">
         <v>12</v>
       </c>
@@ -1576,10 +2359,10 @@
         <v>16</v>
       </c>
       <c r="C49" s="2">
-        <v>48.0</v>
+        <v>48</v>
       </c>
       <c r="D49" s="3">
-        <v>3696.0</v>
+        <v>3696</v>
       </c>
       <c r="F49" s="1" t="s">
         <v>14</v>
@@ -1591,13 +2374,228 @@
         <v>15</v>
       </c>
       <c r="I49" s="5">
-        <v>16.4</v>
+        <v>16.399999999999999</v>
+      </c>
+      <c r="J49" s="7" t="s">
+        <v>17</v>
       </c>
       <c r="K49" s="2">
-        <v>9609.0</v>
+        <v>9609</v>
+      </c>
+      <c r="L49" s="8" t="s">
+        <v>59</v>
       </c>
     </row>
   </sheetData>
-  <drawing r:id="rId1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BF2508DD-7217-6141-BE4F-ED8539327F2E}">
+  <dimension ref="A1:B48"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E16" sqref="E16"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
+  <cols>
+    <col min="1" max="1" width="48.6640625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+      <c r="A1" s="8"/>
+      <c r="B1" s="9"/>
+    </row>
+    <row r="2" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+      <c r="A2" s="8"/>
+      <c r="B2" s="9"/>
+    </row>
+    <row r="3" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+      <c r="A3" s="8"/>
+      <c r="B3" s="9"/>
+    </row>
+    <row r="4" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+      <c r="A4" s="8"/>
+      <c r="B4" s="9"/>
+    </row>
+    <row r="5" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+      <c r="A5" s="8"/>
+      <c r="B5" s="9"/>
+    </row>
+    <row r="6" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+      <c r="A6" s="8"/>
+      <c r="B6" s="9"/>
+    </row>
+    <row r="7" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+      <c r="A7" s="8"/>
+      <c r="B7" s="9"/>
+    </row>
+    <row r="8" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+      <c r="A8" s="8"/>
+      <c r="B8" s="9"/>
+    </row>
+    <row r="9" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+      <c r="A9" s="8"/>
+      <c r="B9" s="9"/>
+    </row>
+    <row r="10" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+      <c r="A10" s="8"/>
+      <c r="B10" s="9"/>
+    </row>
+    <row r="11" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+      <c r="A11" s="8"/>
+      <c r="B11" s="8"/>
+    </row>
+    <row r="12" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+      <c r="A12" s="8"/>
+      <c r="B12" s="9"/>
+    </row>
+    <row r="13" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+      <c r="A13" s="8"/>
+      <c r="B13" s="8"/>
+    </row>
+    <row r="14" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+      <c r="A14" s="8"/>
+      <c r="B14" s="9"/>
+    </row>
+    <row r="15" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+      <c r="A15" s="8"/>
+      <c r="B15" s="9"/>
+    </row>
+    <row r="16" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+      <c r="A16" s="8"/>
+      <c r="B16" s="9"/>
+    </row>
+    <row r="17" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+      <c r="A17" s="8"/>
+      <c r="B17" s="9"/>
+    </row>
+    <row r="18" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+      <c r="A18" s="8"/>
+      <c r="B18" s="9"/>
+    </row>
+    <row r="19" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+      <c r="A19" s="8"/>
+      <c r="B19" s="9"/>
+    </row>
+    <row r="20" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+      <c r="A20" s="8"/>
+      <c r="B20" s="9"/>
+    </row>
+    <row r="21" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+      <c r="A21" s="8"/>
+      <c r="B21" s="9"/>
+    </row>
+    <row r="22" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+      <c r="A22" s="8"/>
+      <c r="B22" s="9"/>
+    </row>
+    <row r="23" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+      <c r="A23" s="8"/>
+      <c r="B23" s="9"/>
+    </row>
+    <row r="24" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+      <c r="A24" s="8"/>
+      <c r="B24" s="8"/>
+    </row>
+    <row r="25" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+      <c r="A25" s="8"/>
+      <c r="B25" s="9"/>
+    </row>
+    <row r="26" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+      <c r="A26" s="8"/>
+      <c r="B26" s="9"/>
+    </row>
+    <row r="27" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+      <c r="A27" s="8"/>
+      <c r="B27" s="9"/>
+    </row>
+    <row r="28" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+      <c r="A28" s="8"/>
+      <c r="B28" s="9"/>
+    </row>
+    <row r="29" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+      <c r="A29" s="8"/>
+      <c r="B29" s="9"/>
+    </row>
+    <row r="30" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+      <c r="A30" s="8"/>
+      <c r="B30" s="9"/>
+    </row>
+    <row r="31" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+      <c r="A31" s="8"/>
+      <c r="B31" s="9"/>
+    </row>
+    <row r="32" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+      <c r="A32" s="8"/>
+      <c r="B32" s="9"/>
+    </row>
+    <row r="33" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+      <c r="A33" s="8"/>
+      <c r="B33" s="8"/>
+    </row>
+    <row r="34" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+      <c r="A34" s="8"/>
+      <c r="B34" s="9"/>
+    </row>
+    <row r="35" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+      <c r="A35" s="8"/>
+      <c r="B35" s="9"/>
+    </row>
+    <row r="36" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+      <c r="A36" s="8"/>
+      <c r="B36" s="9"/>
+    </row>
+    <row r="37" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+      <c r="A37" s="8"/>
+      <c r="B37" s="9"/>
+    </row>
+    <row r="38" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+      <c r="A38" s="8"/>
+      <c r="B38" s="9"/>
+    </row>
+    <row r="39" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+      <c r="A39" s="8"/>
+      <c r="B39" s="9"/>
+    </row>
+    <row r="40" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+      <c r="A40" s="8"/>
+      <c r="B40" s="9"/>
+    </row>
+    <row r="41" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+      <c r="A41" s="8"/>
+      <c r="B41" s="9"/>
+    </row>
+    <row r="42" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+      <c r="A42" s="8"/>
+      <c r="B42" s="9"/>
+    </row>
+    <row r="43" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+      <c r="A43" s="8"/>
+      <c r="B43" s="8"/>
+    </row>
+    <row r="44" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+      <c r="A44" s="8"/>
+      <c r="B44" s="9"/>
+    </row>
+    <row r="45" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+      <c r="A45" s="8"/>
+      <c r="B45" s="9"/>
+    </row>
+    <row r="46" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+      <c r="A46" s="8"/>
+      <c r="B46" s="9"/>
+    </row>
+    <row r="47" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+      <c r="A47" s="8"/>
+      <c r="B47" s="9"/>
+    </row>
+    <row r="48" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+      <c r="A48" s="8"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/fastqFiles/fastq_J.PLAGGENBERG_07.02.19.xlsx
+++ b/fastqFiles/fastq_J.PLAGGENBERG_07.02.19.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/jessicaplaggenberg/Documents/rnaseq-database/fastqFiles/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{41F94593-FE8F-3147-B434-04D4586A2E66}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0F0700D0-C69A-024D-ADE9-4F5236B68894}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="12700" yWindow="460" windowWidth="25260" windowHeight="19900" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="12700" yWindow="460" windowWidth="25260" windowHeight="19780" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="320" uniqueCount="66">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="319" uniqueCount="66">
   <si>
     <t>libraryDate</t>
   </si>
@@ -637,8 +637,8 @@
   </sheetPr>
   <dimension ref="A1:Z49"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="L18" sqref="L18"/>
+    <sheetView tabSelected="1" topLeftCell="J1" workbookViewId="0">
+      <selection activeCell="N7" sqref="N7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="14.5" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
@@ -649,6 +649,7 @@
     <col min="9" max="9" width="14.5" customWidth="1"/>
     <col min="10" max="10" width="12.33203125" customWidth="1"/>
     <col min="11" max="11" width="14.5" customWidth="1"/>
+    <col min="12" max="12" width="125.33203125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
@@ -1857,9 +1858,7 @@
       <c r="L34" s="8" t="s">
         <v>49</v>
       </c>
-      <c r="N34" s="8" t="s">
-        <v>50</v>
-      </c>
+      <c r="N34" s="8"/>
     </row>
     <row r="35" spans="1:14" ht="16" x14ac:dyDescent="0.2">
       <c r="A35" s="1" t="s">
